--- a/db/music.xlsx
+++ b/db/music.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1158B\Desktop\ptuTest\ptuTest\db\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="154">
   <si>
     <t>grade</t>
   </si>
@@ -49,12 +57,6 @@
     <t>목 (6,7-&gt;예302)</t>
   </si>
   <si>
-    <t>6,7</t>
-  </si>
-  <si>
-    <t>목</t>
-  </si>
-  <si>
     <t>3592-01</t>
   </si>
   <si>
@@ -79,9 +81,6 @@
     <t>목 (8,9-&gt;기101)</t>
   </si>
   <si>
-    <t>8,9</t>
-  </si>
-  <si>
     <t>3857-01</t>
   </si>
   <si>
@@ -109,12 +108,6 @@
     <t>수 (4,5-&gt;기101)</t>
   </si>
   <si>
-    <t>4,5</t>
-  </si>
-  <si>
-    <t>수</t>
-  </si>
-  <si>
     <t>3591-01</t>
   </si>
   <si>
@@ -127,12 +120,6 @@
     <t>금 (4-&gt;예301)</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>금</t>
-  </si>
-  <si>
     <t>4004-01</t>
   </si>
   <si>
@@ -145,9 +132,6 @@
     <t>금 (5-&gt;예301)</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>0337-01</t>
   </si>
   <si>
@@ -157,9 +141,6 @@
     <t>금 (2,3-&gt;예301)</t>
   </si>
   <si>
-    <t>2,3</t>
-  </si>
-  <si>
     <t>0459-01</t>
   </si>
   <si>
@@ -169,9 +150,6 @@
     <t>수 (7-&gt;예101)</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>0702-01</t>
   </si>
   <si>
@@ -196,9 +174,6 @@
     <t>화 (6,7-&gt;예301)</t>
   </si>
   <si>
-    <t>화</t>
-  </si>
-  <si>
     <t>3859-01</t>
   </si>
   <si>
@@ -242,9 +217,6 @@
   </si>
   <si>
     <t>월 (2,3-&gt;예302)</t>
-  </si>
-  <si>
-    <t>월</t>
   </si>
   <si>
     <t>2469-01</t>
@@ -514,11 +486,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -527,22 +496,22 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Apple SD 산돌고딕 Neo 일반체"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
       <name val="맑은 고딕"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="4">
@@ -652,122 +621,182 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="28">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="17" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="17" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff88a4d3"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF88A4D3"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office 테마">
       <a:dk1>
@@ -969,7 +998,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -988,7 +1017,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1018,7 +1047,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1044,7 +1073,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1070,7 +1099,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1096,7 +1125,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1122,7 +1151,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1148,7 +1177,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1174,7 +1203,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1200,7 +1229,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1226,7 +1255,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1239,9 +1268,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1258,7 +1293,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1277,7 +1312,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1303,7 +1338,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1329,7 +1364,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1355,7 +1390,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1381,7 +1416,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1407,7 +1442,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1433,7 +1468,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1459,7 +1494,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1485,7 +1520,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1511,7 +1546,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1524,9 +1559,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1540,7 +1581,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1559,7 +1600,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1589,7 +1630,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1615,7 +1656,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1641,7 +1682,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1667,7 +1708,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1693,7 +1734,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1719,7 +1760,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1745,7 +1786,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1771,7 +1812,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1797,7 +1838,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1810,76 +1851,72 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV51"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85156" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85156" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85156" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85156" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85156" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85156" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85156" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85156" style="1" customWidth="1"/>
-    <col min="12" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="256" width="8.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="2">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="3"/>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="22.5" customHeight="1">
+    <row r="2" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="5">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s" s="5">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s" s="6">
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4">
@@ -1887,1524 +1924,1537 @@
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="H2" t="s" s="5">
+      <c r="H2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s" s="5">
+      <c r="I2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J2" t="s" s="2">
+      <c r="J2" s="2" t="str">
         <f>MID(I2,FIND("(",I2)+1,FIND("-&gt;",I2)-4)</f>
-        <v>12</v>
-      </c>
-      <c r="K2" t="s" s="2">
-        <f>LEFT(I2,1)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" ht="20" customHeight="1">
+        <v>6,7</v>
+      </c>
+      <c r="K2" s="2" t="str">
+        <f t="shared" ref="K2:K33" si="0">LEFT(I2,1)</f>
+        <v>목</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="5">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s" s="5">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s" s="6">
-        <v>15</v>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="E3" s="4">
         <v>2</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="H3" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s" s="5">
-        <v>17</v>
+      <c r="H3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="J3" s="3"/>
-      <c r="K3" t="s" s="2">
-        <f>LEFT(I3,1)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" ht="22.5" customHeight="1">
+      <c r="K3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>목</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" t="s" s="5">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s" s="6">
-        <v>19</v>
+      <c r="C4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="E4" s="4">
         <v>2</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <f>MID(I4,FIND("(",I4)+1,FIND("-&gt;",I4)-4)</f>
-        <v>22</v>
-      </c>
-      <c r="K4" t="s" s="2">
-        <f>LEFT(I4,1)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" ht="22.5" customHeight="1">
+      <c r="H4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="2" t="str">
+        <f t="shared" ref="J4:J11" si="1">MID(I4,FIND("(",I4)+1,FIND("-&gt;",I4)-4)</f>
+        <v>8,9</v>
+      </c>
+      <c r="K4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>목</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" t="s" s="5">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s" s="6">
-        <v>24</v>
+      <c r="C5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="E5" s="4">
         <v>1</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" t="s" s="5">
-        <v>25</v>
+      <c r="H5" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="I5" s="7"/>
-      <c r="J5" s="2">
-        <f>MID(I5,FIND("(",I5)+1,FIND("-&gt;",I5)-4)</f>
-      </c>
-      <c r="K5" t="s" s="2">
-        <f>LEFT(I5,1)</f>
-      </c>
-    </row>
-    <row r="6" ht="22.5" customHeight="1">
+      <c r="J5" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" t="s" s="5">
+      <c r="B6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s" s="5">
+      <c r="G6" s="7"/>
+      <c r="H6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s" s="6">
+      <c r="I6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="4">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s" s="5">
-        <v>29</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" t="s" s="5">
-        <v>30</v>
-      </c>
-      <c r="I6" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <f>MID(I6,FIND("(",I6)+1,FIND("-&gt;",I6)-4)</f>
-        <v>32</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <f>LEFT(I6,1)</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" ht="22.5" customHeight="1">
+      <c r="J6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>4,5</v>
+      </c>
+      <c r="K6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>수</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>1</v>
       </c>
-      <c r="B7" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s" s="5">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s" s="6">
-        <v>35</v>
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" t="s" s="5">
-        <v>36</v>
-      </c>
-      <c r="I7" t="s" s="5">
-        <v>37</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <f>MID(I7,FIND("(",I7)+1,FIND("-&gt;",I7)-4)</f>
-        <v>38</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <f>LEFT(I7,1)</f>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" ht="22.5" customHeight="1">
+      <c r="H7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>금</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>1</v>
       </c>
-      <c r="B8" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s" s="5">
-        <v>40</v>
-      </c>
-      <c r="D8" t="s" s="6">
-        <v>41</v>
+      <c r="B8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" t="s" s="5">
-        <v>42</v>
-      </c>
-      <c r="I8" t="s" s="5">
-        <v>43</v>
-      </c>
-      <c r="J8" t="s" s="2">
-        <f>MID(I8,FIND("(",I8)+1,FIND("-&gt;",I8)-4)</f>
-        <v>44</v>
-      </c>
-      <c r="K8" t="s" s="2">
-        <f>LEFT(I8,1)</f>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" ht="22.5" customHeight="1">
+      <c r="H8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="K8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>금</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>2</v>
       </c>
-      <c r="B9" t="s" s="5">
+      <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s" s="5">
-        <v>45</v>
-      </c>
-      <c r="D9" t="s" s="6">
-        <v>46</v>
+      <c r="C9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="E9" s="4">
         <v>2</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" t="s" s="5">
-        <v>36</v>
-      </c>
-      <c r="I9" t="s" s="5">
-        <v>47</v>
-      </c>
-      <c r="J9" t="s" s="2">
-        <f>MID(I9,FIND("(",I9)+1,FIND("-&gt;",I9)-4)</f>
-        <v>48</v>
-      </c>
-      <c r="K9" t="s" s="2">
-        <f>LEFT(I9,1)</f>
+      <c r="H9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" ht="22.5" customHeight="1">
+      <c r="J9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>2,3</v>
+      </c>
+      <c r="K9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>금</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>2</v>
       </c>
-      <c r="B10" t="s" s="5">
+      <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s" s="5">
-        <v>49</v>
-      </c>
-      <c r="D10" t="s" s="6">
-        <v>50</v>
+      <c r="C10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" t="s" s="5">
-        <v>30</v>
-      </c>
-      <c r="I10" t="s" s="5">
-        <v>51</v>
-      </c>
-      <c r="J10" t="s" s="2">
-        <f>MID(I10,FIND("(",I10)+1,FIND("-&gt;",I10)-4)</f>
-        <v>52</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <f>LEFT(I10,1)</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" ht="22.5" customHeight="1">
+      <c r="H10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>수</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>2</v>
       </c>
-      <c r="B11" t="s" s="5">
+      <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C11" t="s" s="5">
-        <v>53</v>
-      </c>
-      <c r="D11" t="s" s="6">
-        <v>54</v>
+      <c r="C11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="E11" s="4">
         <v>2</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="I11" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="J11" t="s" s="2">
-        <f>MID(I11,FIND("(",I11)+1,FIND("-&gt;",I11)-4)</f>
-        <v>22</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <f>LEFT(I11,1)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" ht="20" customHeight="1">
+      <c r="H11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>8,9</v>
+      </c>
+      <c r="K11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>목</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>2</v>
       </c>
-      <c r="B12" t="s" s="5">
+      <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C12" t="s" s="5">
-        <v>55</v>
-      </c>
-      <c r="D12" t="s" s="6">
-        <v>56</v>
+      <c r="C12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="E12" s="4">
         <v>2</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="I12" t="s" s="5">
-        <v>17</v>
+      <c r="H12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="J12" s="3"/>
-      <c r="K12" t="s" s="2">
-        <f>LEFT(I12,1)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" ht="22.5" customHeight="1">
+      <c r="K12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>목</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>2</v>
       </c>
-      <c r="B13" t="s" s="5">
+      <c r="B13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C13" t="s" s="5">
-        <v>57</v>
-      </c>
-      <c r="D13" t="s" s="6">
-        <v>58</v>
+      <c r="C13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="E13" s="4">
         <v>2</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" t="s" s="5">
-        <v>59</v>
-      </c>
-      <c r="I13" t="s" s="5">
-        <v>60</v>
-      </c>
-      <c r="J13" t="s" s="2">
-        <f>MID(I13,FIND("(",I13)+1,FIND("-&gt;",I13)-4)</f>
-        <v>12</v>
-      </c>
-      <c r="K13" t="s" s="2">
-        <f>LEFT(I13,1)</f>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" ht="22.5" customHeight="1">
+      <c r="H13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="2" t="str">
+        <f t="shared" ref="J13:J23" si="2">MID(I13,FIND("(",I13)+1,FIND("-&gt;",I13)-4)</f>
+        <v>6,7</v>
+      </c>
+      <c r="K13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>화</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>2</v>
       </c>
-      <c r="B14" t="s" s="5">
+      <c r="B14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C14" t="s" s="5">
-        <v>62</v>
-      </c>
-      <c r="D14" t="s" s="6">
-        <v>63</v>
+      <c r="C14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" t="s" s="5">
-        <v>25</v>
+      <c r="H14" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="I14" s="7"/>
-      <c r="J14" s="2">
-        <f>MID(I14,FIND("(",I14)+1,FIND("-&gt;",I14)-4)</f>
-      </c>
-      <c r="K14" t="s" s="2">
-        <f>LEFT(I14,1)</f>
-      </c>
-    </row>
-    <row r="15" ht="22.5" customHeight="1">
+      <c r="J14" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>2</v>
       </c>
-      <c r="B15" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s" s="5">
-        <v>64</v>
-      </c>
-      <c r="D15" t="s" s="6">
-        <v>65</v>
+      <c r="B15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="E15" s="4">
         <v>2</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" t="s" s="5">
-        <v>66</v>
-      </c>
-      <c r="I15" t="s" s="5">
-        <v>67</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <f>MID(I15,FIND("(",I15)+1,FIND("-&gt;",I15)-4)</f>
-        <v>48</v>
-      </c>
-      <c r="K15" t="s" s="2">
-        <f>LEFT(I15,1)</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" ht="22.5" customHeight="1">
+      <c r="H15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>2,3</v>
+      </c>
+      <c r="K15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>수</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>2</v>
       </c>
-      <c r="B16" t="s" s="5">
+      <c r="B16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C16" t="s" s="5">
-        <v>68</v>
-      </c>
-      <c r="D16" t="s" s="6">
-        <v>69</v>
-      </c>
-      <c r="E16" s="4">
-        <v>2</v>
-      </c>
-      <c r="F16" t="s" s="5">
-        <v>29</v>
-      </c>
       <c r="G16" s="7"/>
-      <c r="H16" t="s" s="5">
-        <v>30</v>
-      </c>
-      <c r="I16" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <f>MID(I16,FIND("(",I16)+1,FIND("-&gt;",I16)-4)</f>
-        <v>32</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <f>LEFT(I16,1)</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" ht="22.5" customHeight="1">
+      <c r="H16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>4,5</v>
+      </c>
+      <c r="K16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>수</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>2</v>
       </c>
-      <c r="B17" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s" s="5">
-        <v>70</v>
-      </c>
-      <c r="D17" t="s" s="6">
-        <v>71</v>
+      <c r="B17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="E17" s="4">
         <v>2</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" t="s" s="5">
-        <v>72</v>
-      </c>
-      <c r="I17" t="s" s="5">
-        <v>73</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <f>MID(I17,FIND("(",I17)+1,FIND("-&gt;",I17)-4)</f>
-        <v>12</v>
-      </c>
-      <c r="K17" t="s" s="2">
-        <f>LEFT(I17,1)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" ht="22.5" customHeight="1">
+      <c r="H17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>6,7</v>
+      </c>
+      <c r="K17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>목</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>2</v>
       </c>
-      <c r="B18" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s" s="5">
-        <v>74</v>
-      </c>
-      <c r="D18" t="s" s="6">
-        <v>75</v>
+      <c r="B18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="E18" s="4">
         <v>2</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" t="s" s="5">
-        <v>36</v>
-      </c>
-      <c r="I18" t="s" s="5">
-        <v>76</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <f>MID(I18,FIND("(",I18)+1,FIND("-&gt;",I18)-4)</f>
-        <v>48</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <f>LEFT(I18,1)</f>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" ht="22.5" customHeight="1">
+      <c r="H18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J18" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>2,3</v>
+      </c>
+      <c r="K18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>월</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>2</v>
       </c>
-      <c r="B19" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s" s="5">
-        <v>78</v>
-      </c>
-      <c r="D19" t="s" s="6">
-        <v>79</v>
+      <c r="B19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="E19" s="4">
         <v>2</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" t="s" s="5">
-        <v>80</v>
-      </c>
-      <c r="I19" t="s" s="5">
-        <v>81</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <f>MID(I19,FIND("(",I19)+1,FIND("-&gt;",I19)-4)</f>
-        <v>22</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <f>LEFT(I19,1)</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" ht="22.5" customHeight="1">
+      <c r="H19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J19" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>8,9</v>
+      </c>
+      <c r="K19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>수</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>2</v>
       </c>
-      <c r="B20" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s" s="5">
-        <v>82</v>
-      </c>
-      <c r="D20" t="s" s="6">
-        <v>83</v>
+      <c r="B20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="E20" s="4">
         <v>2</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="H20" t="s" s="5">
-        <v>84</v>
-      </c>
-      <c r="I20" t="s" s="5">
-        <v>85</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <f>MID(I20,FIND("(",I20)+1,FIND("-&gt;",I20)-4)</f>
-        <v>32</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <f>LEFT(I20,1)</f>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" ht="22.5" customHeight="1">
+      <c r="H20" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J20" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>4,5</v>
+      </c>
+      <c r="K20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>화</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>2</v>
       </c>
-      <c r="B21" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s" s="5">
-        <v>86</v>
-      </c>
-      <c r="D21" t="s" s="6">
-        <v>87</v>
+      <c r="B21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="E21" s="4">
         <v>2</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="H21" t="s" s="5">
-        <v>42</v>
-      </c>
-      <c r="I21" t="s" s="5">
-        <v>88</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <f>MID(I21,FIND("(",I21)+1,FIND("-&gt;",I21)-4)</f>
-        <v>32</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <f>LEFT(I21,1)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" ht="22.5" customHeight="1">
+      <c r="H21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J21" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>4,5</v>
+      </c>
+      <c r="K21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>목</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>2</v>
       </c>
-      <c r="B22" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s" s="5">
-        <v>89</v>
-      </c>
-      <c r="D22" t="s" s="6">
-        <v>90</v>
+      <c r="B22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="E22" s="4">
         <v>2</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" t="s" s="5">
-        <v>91</v>
-      </c>
-      <c r="I22" t="s" s="5">
-        <v>92</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <f>MID(I22,FIND("(",I22)+1,FIND("-&gt;",I22)-4)</f>
-        <v>22</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <f>LEFT(I22,1)</f>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" ht="22.5" customHeight="1">
+      <c r="H22" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J22" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>8,9</v>
+      </c>
+      <c r="K22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>금</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>2</v>
       </c>
-      <c r="B23" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s" s="5">
-        <v>93</v>
-      </c>
-      <c r="D23" t="s" s="6">
-        <v>94</v>
+      <c r="B23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="E23" s="4">
         <v>2</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="H23" t="s" s="5">
-        <v>36</v>
-      </c>
-      <c r="I23" t="s" s="5">
-        <v>95</v>
-      </c>
-      <c r="J23" t="s" s="2">
-        <f>MID(I23,FIND("(",I23)+1,FIND("-&gt;",I23)-4)</f>
-        <v>32</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <f>LEFT(I23,1)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" ht="20" customHeight="1">
+      <c r="H23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J23" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>4,5</v>
+      </c>
+      <c r="K23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>목</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>2</v>
       </c>
-      <c r="B24" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s" s="5">
-        <v>96</v>
-      </c>
-      <c r="D24" t="s" s="6">
-        <v>97</v>
+      <c r="B24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="E24" s="4">
         <v>2</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="H24" t="s" s="5">
-        <v>98</v>
-      </c>
-      <c r="I24" t="s" s="5">
-        <v>99</v>
+      <c r="H24" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="J24" s="3"/>
-      <c r="K24" t="s" s="2">
-        <f>LEFT(I24,1)</f>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" ht="22.5" customHeight="1">
+      <c r="K24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>화</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>2</v>
       </c>
-      <c r="B25" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s" s="5">
-        <v>100</v>
-      </c>
-      <c r="D25" t="s" s="6">
-        <v>101</v>
+      <c r="B25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="E25" s="4">
         <v>2</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25" t="s" s="5">
+      <c r="H25" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="J25" s="2" t="str">
+        <f>MID(I25,FIND("(",I25)+1,FIND("-&gt;",I25)-4)</f>
+        <v>6,7</v>
+      </c>
+      <c r="K25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>금</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>2</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="I25" t="s" s="5">
-        <v>102</v>
-      </c>
-      <c r="J25" t="s" s="2">
-        <f>MID(I25,FIND("(",I25)+1,FIND("-&gt;",I25)-4)</f>
-        <v>12</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <f>LEFT(I25,1)</f>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" ht="20" customHeight="1">
-      <c r="A26" s="4">
-        <v>2</v>
-      </c>
-      <c r="B26" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s" s="5">
-        <v>103</v>
-      </c>
-      <c r="D26" t="s" s="6">
-        <v>104</v>
+      <c r="D26" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="E26" s="4">
         <v>1</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="H26" t="s" s="5">
-        <v>25</v>
+      <c r="H26" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="3"/>
-      <c r="K26" t="s" s="2">
-        <f>LEFT(I26,1)</f>
-      </c>
-    </row>
-    <row r="27" ht="22.5" customHeight="1">
+      <c r="K26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>3</v>
       </c>
-      <c r="B27" t="s" s="5">
+      <c r="B27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C27" t="s" s="5">
-        <v>105</v>
-      </c>
-      <c r="D27" t="s" s="6">
-        <v>106</v>
+      <c r="C27" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="E27" s="4">
         <v>1</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="H27" t="s" s="5">
-        <v>30</v>
-      </c>
-      <c r="I27" t="s" s="5">
-        <v>51</v>
-      </c>
-      <c r="J27" t="s" s="2">
-        <f>MID(I27,FIND("(",I27)+1,FIND("-&gt;",I27)-4)</f>
-        <v>52</v>
-      </c>
-      <c r="K27" t="s" s="2">
-        <f>LEFT(I27,1)</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" ht="22.5" customHeight="1">
+      <c r="H27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J27" s="2" t="str">
+        <f t="shared" ref="J27:J32" si="3">MID(I27,FIND("(",I27)+1,FIND("-&gt;",I27)-4)</f>
+        <v>7</v>
+      </c>
+      <c r="K27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>수</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>3</v>
       </c>
-      <c r="B28" t="s" s="5">
+      <c r="B28" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C28" t="s" s="5">
-        <v>107</v>
-      </c>
-      <c r="D28" t="s" s="6">
-        <v>108</v>
+      <c r="C28" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="E28" s="4">
         <v>1</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
-      <c r="H28" t="s" s="5">
-        <v>25</v>
+      <c r="H28" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="I28" s="7"/>
-      <c r="J28" s="2">
-        <f>MID(I28,FIND("(",I28)+1,FIND("-&gt;",I28)-4)</f>
-      </c>
-      <c r="K28" t="s" s="2">
-        <f>LEFT(I28,1)</f>
-      </c>
-    </row>
-    <row r="29" ht="22.5" customHeight="1">
+      <c r="J28" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>3</v>
       </c>
-      <c r="B29" t="s" s="5">
+      <c r="B29" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C29" t="s" s="5">
-        <v>109</v>
-      </c>
-      <c r="D29" t="s" s="6">
-        <v>110</v>
+      <c r="C29" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="E29" s="4">
         <v>2</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
-      <c r="H29" t="s" s="5">
-        <v>66</v>
-      </c>
-      <c r="I29" t="s" s="5">
-        <v>111</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <f>MID(I29,FIND("(",I29)+1,FIND("-&gt;",I29)-4)</f>
-        <v>12</v>
-      </c>
-      <c r="K29" t="s" s="2">
-        <f>LEFT(I29,1)</f>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" ht="22.5" customHeight="1">
+      <c r="H29" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="J29" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>6,7</v>
+      </c>
+      <c r="K29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>화</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>3</v>
       </c>
-      <c r="B30" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s" s="5">
-        <v>112</v>
-      </c>
-      <c r="D30" t="s" s="6">
-        <v>113</v>
+      <c r="B30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="E30" s="4">
         <v>2</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
-      <c r="H30" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="I30" t="s" s="5">
-        <v>17</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <f>MID(I30,FIND("(",I30)+1,FIND("-&gt;",I30)-4)</f>
-        <v>22</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <f>LEFT(I30,1)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" ht="22.5" customHeight="1">
+      <c r="H30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>8,9</v>
+      </c>
+      <c r="K30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>목</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>3</v>
       </c>
-      <c r="B31" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s" s="5">
-        <v>114</v>
-      </c>
-      <c r="D31" t="s" s="6">
-        <v>115</v>
+      <c r="B31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="E31" s="4">
         <v>2</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
-      <c r="H31" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="I31" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <f>MID(I31,FIND("(",I31)+1,FIND("-&gt;",I31)-4)</f>
-        <v>22</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <f>LEFT(I31,1)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" ht="22.5" customHeight="1">
+      <c r="H31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>8,9</v>
+      </c>
+      <c r="K31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>목</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>3</v>
       </c>
-      <c r="B32" t="s" s="5">
+      <c r="B32" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E32" s="4">
+        <v>2</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C32" t="s" s="5">
-        <v>116</v>
-      </c>
-      <c r="D32" t="s" s="6">
-        <v>117</v>
-      </c>
-      <c r="E32" s="4">
-        <v>2</v>
-      </c>
-      <c r="F32" t="s" s="5">
-        <v>29</v>
-      </c>
       <c r="G32" s="7"/>
-      <c r="H32" t="s" s="5">
-        <v>30</v>
-      </c>
-      <c r="I32" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <f>MID(I32,FIND("(",I32)+1,FIND("-&gt;",I32)-4)</f>
-        <v>32</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <f>LEFT(I32,1)</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" ht="22.5" customHeight="1">
+      <c r="H32" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J32" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>4,5</v>
+      </c>
+      <c r="K32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>수</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>3</v>
       </c>
-      <c r="B33" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s" s="5">
-        <v>118</v>
-      </c>
-      <c r="D33" t="s" s="6">
-        <v>119</v>
+      <c r="B33" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="E33" s="4">
         <v>2</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
-      <c r="H33" t="s" s="5">
-        <v>30</v>
-      </c>
-      <c r="I33" t="s" s="5">
-        <v>120</v>
+      <c r="H33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="J33" s="3"/>
-      <c r="K33" t="s" s="2">
-        <f>LEFT(I33,1)</f>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" ht="22.5" customHeight="1">
+      <c r="K33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>화</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>3</v>
       </c>
-      <c r="B34" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s" s="5">
-        <v>121</v>
-      </c>
-      <c r="D34" t="s" s="6">
-        <v>122</v>
+      <c r="B34" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="E34" s="4">
         <v>2</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
-      <c r="H34" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="I34" t="s" s="5">
-        <v>123</v>
-      </c>
-      <c r="J34" t="s" s="2">
+      <c r="H34" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J34" s="2" t="str">
         <f>MID(I34,FIND("(",I34)+1,FIND("-&gt;",I34)-4)</f>
-        <v>12</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <f>LEFT(I34,1)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" ht="22.5" customHeight="1">
+        <v>6,7</v>
+      </c>
+      <c r="K34" s="2" t="str">
+        <f t="shared" ref="K34:K51" si="4">LEFT(I34,1)</f>
+        <v>목</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>3</v>
       </c>
-      <c r="B35" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s" s="5">
-        <v>124</v>
-      </c>
-      <c r="D35" t="s" s="6">
-        <v>125</v>
+      <c r="B35" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="E35" s="4">
         <v>3</v>
       </c>
-      <c r="F35" t="s" s="5">
-        <v>29</v>
+      <c r="F35" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="G35" s="7"/>
-      <c r="H35" t="s" s="5">
-        <v>126</v>
+      <c r="H35" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="I35" s="7"/>
-      <c r="J35" s="2">
+      <c r="J35" s="2" t="e">
         <f>MID(I35,FIND("(",I35)+1,FIND("-&gt;",I35)-4)</f>
-      </c>
-      <c r="K35" t="s" s="2">
-        <f>LEFT(I35,1)</f>
-      </c>
-    </row>
-    <row r="36" ht="22.5" customHeight="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K35" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>3</v>
       </c>
-      <c r="B36" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s" s="5">
-        <v>127</v>
-      </c>
-      <c r="D36" t="s" s="6">
-        <v>128</v>
+      <c r="B36" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="E36" s="4">
         <v>2</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" t="s" s="5">
-        <v>129</v>
-      </c>
-      <c r="I36" t="s" s="5">
-        <v>130</v>
-      </c>
-      <c r="J36" t="s" s="2">
+      <c r="H36" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J36" s="2" t="str">
         <f>MID(I36,FIND("(",I36)+1,FIND("-&gt;",I36)-4)</f>
-        <v>12</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <f>LEFT(I36,1)</f>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" ht="22.5" customHeight="1">
+        <v>6,7</v>
+      </c>
+      <c r="K36" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>금</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>3</v>
       </c>
-      <c r="B37" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s" s="5">
-        <v>131</v>
-      </c>
-      <c r="D37" t="s" s="6">
-        <v>132</v>
+      <c r="B37" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="E37" s="4">
         <v>2</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
-      <c r="H37" t="s" s="5">
-        <v>133</v>
-      </c>
-      <c r="I37" t="s" s="5">
-        <v>134</v>
-      </c>
-      <c r="J37" t="s" s="2">
+      <c r="H37" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J37" s="2" t="str">
         <f>MID(I37,FIND("(",I37)+1,FIND("-&gt;",I37)-4)</f>
-        <v>12</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <f>LEFT(I37,1)</f>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" ht="20" customHeight="1">
+        <v>6,7</v>
+      </c>
+      <c r="K37" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>금</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>3</v>
       </c>
-      <c r="B38" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="C38" t="s" s="5">
-        <v>135</v>
-      </c>
-      <c r="D38" t="s" s="6">
-        <v>136</v>
+      <c r="B38" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="E38" s="4">
         <v>2</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
-      <c r="H38" t="s" s="5">
-        <v>36</v>
-      </c>
-      <c r="I38" t="s" s="5">
-        <v>95</v>
+      <c r="H38" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="J38" s="3"/>
-      <c r="K38" t="s" s="2">
-        <f>LEFT(I38,1)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" ht="22.5" customHeight="1">
+      <c r="K38" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>목</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>3</v>
       </c>
-      <c r="B39" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="C39" t="s" s="5">
-        <v>137</v>
-      </c>
-      <c r="D39" t="s" s="6">
-        <v>138</v>
+      <c r="B39" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="E39" s="4">
         <v>2</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
-      <c r="H39" t="s" s="5">
-        <v>98</v>
-      </c>
-      <c r="I39" t="s" s="5">
-        <v>99</v>
-      </c>
-      <c r="J39" t="s" s="2">
+      <c r="H39" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="J39" s="2" t="str">
         <f>MID(I39,FIND("(",I39)+1,FIND("-&gt;",I39)-4)</f>
-        <v>22</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <f>LEFT(I39,1)</f>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" ht="20" customHeight="1">
+        <v>8,9</v>
+      </c>
+      <c r="K39" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>화</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>3</v>
       </c>
-      <c r="B40" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="C40" t="s" s="5">
-        <v>139</v>
-      </c>
-      <c r="D40" t="s" s="6">
-        <v>140</v>
+      <c r="B40" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="E40" s="4">
         <v>1</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
-      <c r="H40" t="s" s="5">
-        <v>25</v>
+      <c r="H40" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="I40" s="7"/>
       <c r="J40" s="3"/>
-      <c r="K40" t="s" s="2">
-        <f>LEFT(I40,1)</f>
-      </c>
-    </row>
-    <row r="41" ht="22.5" customHeight="1">
+      <c r="K40" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>3</v>
       </c>
-      <c r="B41" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="C41" t="s" s="5">
-        <v>141</v>
-      </c>
-      <c r="D41" t="s" s="6">
-        <v>142</v>
+      <c r="B41" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="E41" s="4">
         <v>2</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
-      <c r="H41" t="s" s="5">
-        <v>42</v>
-      </c>
-      <c r="I41" t="s" s="5">
-        <v>143</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <f>MID(I41,FIND("(",I41)+1,FIND("-&gt;",I41)-4)</f>
-        <v>48</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <f>LEFT(I41,1)</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" ht="22.5" customHeight="1">
+      <c r="H41" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J41" s="2" t="str">
+        <f t="shared" ref="J41:J46" si="5">MID(I41,FIND("(",I41)+1,FIND("-&gt;",I41)-4)</f>
+        <v>2,3</v>
+      </c>
+      <c r="K41" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>수</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>4</v>
       </c>
-      <c r="B42" t="s" s="5">
+      <c r="B42" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C42" t="s" s="5">
-        <v>144</v>
-      </c>
-      <c r="D42" t="s" s="6">
-        <v>145</v>
+      <c r="C42" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="E42" s="4">
         <v>1</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" t="s" s="5">
-        <v>25</v>
+      <c r="H42" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="I42" s="7"/>
-      <c r="J42" s="2">
-        <f>MID(I42,FIND("(",I42)+1,FIND("-&gt;",I42)-4)</f>
-      </c>
-      <c r="K42" t="s" s="2">
-        <f>LEFT(I42,1)</f>
-      </c>
-    </row>
-    <row r="43" ht="22.5" customHeight="1">
+      <c r="J42" s="2" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K42" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>4</v>
       </c>
-      <c r="B43" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="C43" t="s" s="5">
-        <v>146</v>
-      </c>
-      <c r="D43" t="s" s="6">
-        <v>147</v>
+      <c r="B43" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="E43" s="4">
         <v>2</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
-      <c r="H43" t="s" s="5">
-        <v>148</v>
-      </c>
-      <c r="I43" t="s" s="5">
-        <v>149</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <f>MID(I43,FIND("(",I43)+1,FIND("-&gt;",I43)-4)</f>
-        <v>48</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <f>LEFT(I43,1)</f>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" ht="22.5" customHeight="1">
+      <c r="H43" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J43" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2,3</v>
+      </c>
+      <c r="K43" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>화</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>4</v>
       </c>
-      <c r="B44" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="C44" t="s" s="5">
-        <v>150</v>
-      </c>
-      <c r="D44" t="s" s="6">
-        <v>151</v>
+      <c r="B44" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="E44" s="4">
         <v>2</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
-      <c r="H44" t="s" s="5">
-        <v>152</v>
-      </c>
-      <c r="I44" t="s" s="5">
-        <v>153</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <f>MID(I44,FIND("(",I44)+1,FIND("-&gt;",I44)-4)</f>
-        <v>48</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <f>LEFT(I44,1)</f>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" ht="22.5" customHeight="1">
+      <c r="H44" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J44" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>2,3</v>
+      </c>
+      <c r="K44" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>화</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>4</v>
       </c>
-      <c r="B45" t="s" s="5">
+      <c r="B45" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E45" s="4">
+        <v>2</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C45" t="s" s="5">
-        <v>154</v>
-      </c>
-      <c r="D45" t="s" s="6">
-        <v>155</v>
-      </c>
-      <c r="E45" s="4">
-        <v>2</v>
-      </c>
-      <c r="F45" t="s" s="5">
-        <v>29</v>
-      </c>
       <c r="G45" s="7"/>
-      <c r="H45" t="s" s="5">
-        <v>30</v>
-      </c>
-      <c r="I45" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <f>MID(I45,FIND("(",I45)+1,FIND("-&gt;",I45)-4)</f>
-        <v>32</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <f>LEFT(I45,1)</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" ht="22.5" customHeight="1">
+      <c r="H45" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J45" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>4,5</v>
+      </c>
+      <c r="K45" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>수</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>4</v>
       </c>
-      <c r="B46" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="C46" t="s" s="5">
-        <v>156</v>
-      </c>
-      <c r="D46" t="s" s="6">
-        <v>157</v>
+      <c r="B46" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="E46" s="4">
         <v>2</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
-      <c r="H46" t="s" s="5">
-        <v>59</v>
-      </c>
-      <c r="I46" t="s" s="5">
-        <v>158</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <f>MID(I46,FIND("(",I46)+1,FIND("-&gt;",I46)-4)</f>
-        <v>22</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <f>LEFT(I46,1)</f>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" ht="20" customHeight="1">
+      <c r="H46" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="J46" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>8,9</v>
+      </c>
+      <c r="K46" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>화</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>4</v>
       </c>
-      <c r="B47" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="C47" t="s" s="5">
-        <v>159</v>
-      </c>
-      <c r="D47" t="s" s="6">
-        <v>160</v>
+      <c r="B47" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>148</v>
       </c>
       <c r="E47" s="4">
         <v>2</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
-      <c r="H47" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="I47" t="s" s="5">
-        <v>17</v>
+      <c r="H47" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="J47" s="3"/>
-      <c r="K47" t="s" s="2">
-        <f>LEFT(I47,1)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" ht="20" customHeight="1">
+      <c r="K47" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>목</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
         <v>4</v>
       </c>
-      <c r="B48" t="s" s="9">
-        <v>26</v>
-      </c>
-      <c r="C48" t="s" s="9">
-        <v>161</v>
-      </c>
-      <c r="D48" t="s" s="10">
-        <v>162</v>
+      <c r="B48" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>150</v>
       </c>
       <c r="E48" s="8">
         <v>2</v>
       </c>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
-      <c r="H48" t="s" s="9">
-        <v>163</v>
-      </c>
-      <c r="I48" t="s" s="9">
-        <v>21</v>
+      <c r="H48" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="J48" s="3"/>
-      <c r="K48" t="s" s="2">
-        <f>LEFT(I48,1)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" ht="16" customHeight="1">
+      <c r="K48" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>목</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="12">
         <v>4</v>
       </c>
-      <c r="B49" t="s" s="13">
-        <v>26</v>
-      </c>
-      <c r="C49" t="s" s="13">
-        <v>164</v>
-      </c>
-      <c r="D49" t="s" s="14">
-        <v>165</v>
+      <c r="B49" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>153</v>
       </c>
       <c r="E49" s="15">
         <v>1</v>
       </c>
       <c r="F49" s="16"/>
       <c r="G49" s="16"/>
-      <c r="H49" t="s" s="13">
-        <v>25</v>
+      <c r="H49" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="I49" s="17"/>
       <c r="J49" s="18"/>
-      <c r="K49" t="s" s="2">
-        <f>LEFT(I49,1)</f>
-      </c>
-    </row>
-    <row r="50" ht="16" customHeight="1">
+      <c r="K49" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="19"/>
       <c r="B50" s="13"/>
       <c r="C50" s="20"/>
@@ -3415,11 +3465,12 @@
       <c r="H50" s="13"/>
       <c r="I50" s="17"/>
       <c r="J50" s="18"/>
-      <c r="K50" t="s" s="2">
-        <f>LEFT(I50,1)</f>
-      </c>
-    </row>
-    <row r="51" ht="16" customHeight="1">
+      <c r="K50" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="21"/>
       <c r="B51" s="22"/>
       <c r="C51" s="23"/>
@@ -3430,13 +3481,15 @@
       <c r="H51" s="22"/>
       <c r="I51" s="27"/>
       <c r="J51" s="18"/>
-      <c r="K51" t="s" s="2">
-        <f>LEFT(I51,1)</f>
+      <c r="K51" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Apple SD 산돌고딕 Neo 일반체,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
